--- a/src/main/resources/templet/download/commision/askcost.xlsx
+++ b/src/main/resources/templet/download/commision/askcost.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,14 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,6 +47,34 @@
   </si>
   <si>
     <t>工作订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总图号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含税/未税</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -418,44 +438,62 @@
     <col min="3" max="3" width="39.125" customWidth="1"/>
     <col min="4" max="4" width="32.75" customWidth="1"/>
     <col min="5" max="5" width="26.875" customWidth="1"/>
-    <col min="8" max="8" width="29.5" customWidth="1"/>
+    <col min="11" max="11" width="29.5" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
